--- a/web-tests/api/src/test/resources/data/self_fee/пустой+БИК.xlsx
+++ b/web-tests/api/src/test/resources/data/self_fee/пустой+БИК.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marina_kokoreva/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergey/IdeaProjects/automag/web-tests/api/src/test/resources/data/self_fee/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B284D712-0E6C-784C-AE96-42383725D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBD9389-E4A9-FE47-88E3-7BB0E2F1DE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="5680" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4640" yWindow="5680" windowWidth="32340" windowHeight="11180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>Платонович</t>
   </si>
   <si>
-    <t>170702089649</t>
-  </si>
-  <si>
     <t>79005770010</t>
   </si>
   <si>
@@ -118,10 +115,13 @@
     <t>Услуги по продвижению Сервиса СберМаркет, поддержке его качества и доступности</t>
   </si>
   <si>
-    <t>2022-12-01</t>
-  </si>
-  <si>
-    <t>2022-12-05</t>
+    <t>002276497062</t>
+  </si>
+  <si>
+    <t>2023-02-01</t>
+  </si>
+  <si>
+    <t>2023-02-31</t>
   </si>
 </sst>
 </file>
@@ -500,11 +500,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -516,7 +519,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -575,26 +578,26 @@
       <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
-        <v>26</v>
-      </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L2">
         <v>868.13</v>
@@ -606,10 +609,10 @@
         <v>868.13</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>32</v>
@@ -628,23 +631,23 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -656,10 +659,10 @@
         <v>257.5</v>
       </c>
       <c r="O3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -672,26 +675,26 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -703,10 +706,10 @@
         <v>193.23</v>
       </c>
       <c r="O4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
